--- a/DanhSachKhachHang.xlsx
+++ b/DanhSachKhachHang.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longk\OneDrive\Desktop\LearningMisa\MISA_Import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh sách khách hàng" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Danh sách khách hàng" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,405 +24,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">MS-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã khách hàng (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên khách hàng (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã thẻ thành viên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhóm khách hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số điện thoại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày sinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên công ty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã số thuế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Mạnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0977.886.368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manhnv229@gmaiol.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dĩnh Kế TP Bắc Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách hàng VIP cần lưu ý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tiến Tân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0906278185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/09/1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Tuấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách MISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0912345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Đình Chiểu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách VIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09876654321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0332235555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04651423123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thị Mơ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0395 599 586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hải Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trương Quang Tuấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0352 277 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nam Định</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Đình Thi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09218123910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lý Nhân, Vĩnh Tường, Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Quang Huy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0974791898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Thùy Linh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0945978643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuân Chính, Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0332309888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lại Thị Đào</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Anh Tuấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0969783657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Duy Tân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Đức Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0984736253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà Đông, Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Văn Mạnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090.345.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công ty TNHH Đại Lộc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0123456789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tòa nhà VTC, Hoàn Kiếm, Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công ty TNHH An Thanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01689584712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công ty TNHH Tấn Tài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0374075522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công ty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Thị Mai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0977340334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nam Từ Liêm - Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Đình Triển</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0979.365.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Mẫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV00120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0912.335.369</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
+  <si>
+    <t>MS-003</t>
+  </si>
+  <si>
+    <t>Mã khách hàng (*)</t>
+  </si>
+  <si>
+    <t>Tên khách hàng (*)</t>
+  </si>
+  <si>
+    <t>Mã thẻ thành viên</t>
+  </si>
+  <si>
+    <t>Nhóm khách hàng</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Tên công ty</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>KH1</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mạnh</t>
+  </si>
+  <si>
+    <t>TV00098</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>0977.886.368</t>
+  </si>
+  <si>
+    <t>MISA</t>
+  </si>
+  <si>
+    <t>manhnv229@gmaiol.com</t>
+  </si>
+  <si>
+    <t>Dĩnh Kế TP Bắc Giang</t>
+  </si>
+  <si>
+    <t>Khách hàng VIP cần lưu ý</t>
+  </si>
+  <si>
+    <t>KH001</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Tân</t>
+  </si>
+  <si>
+    <t>TV00099</t>
+  </si>
+  <si>
+    <t>0906278185</t>
+  </si>
+  <si>
+    <t>22/09/1989</t>
+  </si>
+  <si>
+    <t>FSOFT</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tuấn</t>
+  </si>
+  <si>
+    <t>TV00100</t>
+  </si>
+  <si>
+    <t>Khách MISA</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>12/2021</t>
+  </si>
+  <si>
+    <t>CMC Software</t>
+  </si>
+  <si>
+    <t>KH002</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chiểu</t>
+  </si>
+  <si>
+    <t>TV00101</t>
+  </si>
+  <si>
+    <t>Khách VIP</t>
+  </si>
+  <si>
+    <t>09876654321</t>
+  </si>
+  <si>
+    <t>KH003</t>
+  </si>
+  <si>
+    <t>TV00102</t>
+  </si>
+  <si>
+    <t>0332235555</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>KH004</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hoàng</t>
+  </si>
+  <si>
+    <t>TV00103</t>
+  </si>
+  <si>
+    <t>04651423123</t>
+  </si>
+  <si>
+    <t>Hà nội</t>
+  </si>
+  <si>
+    <t>KH005</t>
+  </si>
+  <si>
+    <t>Lê Thị Mơ</t>
+  </si>
+  <si>
+    <t>TV00104</t>
+  </si>
+  <si>
+    <t>0395 599 586</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>KH006</t>
+  </si>
+  <si>
+    <t>Trương Quang Tuấn</t>
+  </si>
+  <si>
+    <t>TV00105</t>
+  </si>
+  <si>
+    <t>0352 277 129</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>KH007</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Thi</t>
+  </si>
+  <si>
+    <t>TV00106</t>
+  </si>
+  <si>
+    <t>09218123910</t>
+  </si>
+  <si>
+    <t>Lý Nhân, Vĩnh Tường, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>KH008</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Huy</t>
+  </si>
+  <si>
+    <t>TV00107</t>
+  </si>
+  <si>
+    <t>0974791898</t>
+  </si>
+  <si>
+    <t>KH009</t>
+  </si>
+  <si>
+    <t>Hoàng Thùy Linh</t>
+  </si>
+  <si>
+    <t>TV00108</t>
+  </si>
+  <si>
+    <t>0945978643</t>
+  </si>
+  <si>
+    <t>Tuân Chính, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>KH010</t>
+  </si>
+  <si>
+    <t>TV00109</t>
+  </si>
+  <si>
+    <t>0332309888</t>
+  </si>
+  <si>
+    <t>KH011</t>
+  </si>
+  <si>
+    <t>Lại Thị Đào</t>
+  </si>
+  <si>
+    <t>TV00110</t>
+  </si>
+  <si>
+    <t>KH012</t>
+  </si>
+  <si>
+    <t>Hoàng Anh Tuấn</t>
+  </si>
+  <si>
+    <t>TV00111</t>
+  </si>
+  <si>
+    <t>0969783657</t>
+  </si>
+  <si>
+    <t>15 Duy Tân</t>
+  </si>
+  <si>
+    <t>KH013</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo</t>
+  </si>
+  <si>
+    <t>TV00112</t>
+  </si>
+  <si>
+    <t>KH014</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Việt</t>
+  </si>
+  <si>
+    <t>TV00113</t>
+  </si>
+  <si>
+    <t>0984736253</t>
+  </si>
+  <si>
+    <t>Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>KH015</t>
+  </si>
+  <si>
+    <t>Lê Văn Mạnh</t>
+  </si>
+  <si>
+    <t>TV00114</t>
+  </si>
+  <si>
+    <t>090.345.123</t>
+  </si>
+  <si>
+    <t>KH016</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Đại Lộc</t>
+  </si>
+  <si>
+    <t>TV00115</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Tòa nhà VTC, Hoàn Kiếm, Hà Nội</t>
+  </si>
+  <si>
+    <t>KH017</t>
+  </si>
+  <si>
+    <t>Công ty TNHH An Thanh</t>
+  </si>
+  <si>
+    <t>TV00116</t>
+  </si>
+  <si>
+    <t>01689584712</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Tấn Tài</t>
+  </si>
+  <si>
+    <t>KH018</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>TV00117</t>
+  </si>
+  <si>
+    <t>0374075522</t>
+  </si>
+  <si>
+    <t>Công ty</t>
+  </si>
+  <si>
+    <t>KH019</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mai</t>
+  </si>
+  <si>
+    <t>TV00118</t>
+  </si>
+  <si>
+    <t>0977340334</t>
+  </si>
+  <si>
+    <t>Nam Từ Liêm - Hà Nội</t>
+  </si>
+  <si>
+    <t>KH020</t>
+  </si>
+  <si>
+    <t>Vũ Đình Triển</t>
+  </si>
+  <si>
+    <t>TV00119</t>
+  </si>
+  <si>
+    <t>0979.365.236</t>
+  </si>
+  <si>
+    <t>KH021</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Mẫ</t>
+  </si>
+  <si>
+    <t>TV00120</t>
+  </si>
+  <si>
+    <t>0912.335.369</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY;@"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -428,7 +418,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -457,109 +447,69 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -618,39 +568,313 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="35.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="3" width="9.12"/>
+    <col min="1" max="1" width="21.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="9.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -665,7 +889,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -700,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,11 +940,13 @@
       <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>125411254</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -733,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -755,7 +981,7 @@
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>555454545</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -765,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -787,7 +1013,7 @@
       <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>555454545</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -800,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -816,13 +1042,13 @@
       <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>1989</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>125411254</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -835,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -857,7 +1083,7 @@
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>125411254</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -867,7 +1093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -887,7 +1113,7 @@
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>125411254</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -897,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -919,7 +1145,7 @@
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>125411254</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -932,7 +1158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -952,7 +1178,7 @@
       <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>555454545</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -965,7 +1191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -987,7 +1213,7 @@
       <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>555454545</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -997,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1017,7 +1243,7 @@
       <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>555454545</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1028,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1050,7 +1276,7 @@
       <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>555454545</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1063,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -1083,7 +1309,7 @@
       <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>555454545</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1094,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1116,7 +1342,7 @@
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>125411254</v>
       </c>
       <c r="J15" s="9"/>
@@ -1124,7 +1350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -1144,7 +1370,7 @@
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>125411254</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1157,7 +1383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1179,7 +1405,7 @@
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>125411254</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1190,7 +1416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -1210,7 +1436,7 @@
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1">
         <v>125411254</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -1220,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -1242,7 +1468,7 @@
       <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>125411254</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1253,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -1275,7 +1501,7 @@
       <c r="G20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="1">
         <v>555454545</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1288,7 +1514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -1308,7 +1534,7 @@
       <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="1">
         <v>555454545</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -1318,7 +1544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -1340,7 +1566,7 @@
       <c r="G22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="1">
         <v>555454545</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1353,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -1373,7 +1599,7 @@
       <c r="G23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="1">
         <v>555454545</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1386,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -1408,7 +1634,7 @@
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="1">
         <v>125411254</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -1418,7 +1644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>118</v>
       </c>
@@ -1440,7 +1666,7 @@
       <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="1">
         <v>125411254</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1454,13 +1680,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="c71f" objects="true" scenarios="true" insertRows="false" deleteRows="false"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetProtection password="C71F" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>